--- a/InputDisplacingAbatement/Make_data/T.xlsx
+++ b/InputDisplacingAbatement/Make_data/T.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
